--- a/ETSystem.Cashing/Template/模板一.xlsx
+++ b/ETSystem.Cashing/Template/模板一.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Source\ET系统充绒计算工具\ETSystem.Cashing\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4DC942-129A-448C-92B4-85A3C2CB4E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC40CA-46F0-4B11-AC2F-C03EFFCCA1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CD11E879-4F6E-4BFB-8806-65187F36079F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>L# 充绒系数：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>充绒材质：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -90,21 +98,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>克重</t>
+      <t>克重：</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>充绒材质：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +169,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,24 +178,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,64 +206,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -290,68 +215,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,107 +572,112 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="28.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:112" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="DH1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:112" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>11</v>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
+    <row r="3" spans="1:112" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:112" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H6" s="1" t="s">
+    <row r="6" spans="1:112" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
